--- a/doc/RaportZTestow/F_0.75_Cr_0.5_L_5.xlsx
+++ b/doc/RaportZTestow/F_0.75_Cr_0.5_L_5.xlsx
@@ -632,7 +632,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,14 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,6 +671,395 @@
     </tableStyle>
   </tableStyles>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Expected</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Our</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-948.53666936947252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1197.4481008984108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1069.0422207676313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-999.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-899.8124757073906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-799.90488731018024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-681.32522558278094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-598.44318758224142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-499.92674471480365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-399.91520823431506</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-297.22224288828454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-197.30689911377175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.572834465228652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.674288569277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200.61013990070848</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305.62883809431207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407.81687772919275</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500.09409722072377</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600.47765652898318</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>824.22994211351477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1095.0121416800343</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1102.7279780188178</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1110.5332780844194</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1196.6799120234273</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1303.9573374412055</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1614.6041362665615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1700.0000000074638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Classic</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-1399.9999999756128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14361.294814243955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1146.3482390591412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-389.78849105342181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-999.99999817975595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-899.67159606142798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-798.61453910835371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-681.76389031983649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-598.34307801575585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-499.88626044123458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-399.99939277818476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-294.87157789424651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-197.67327007333864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-44.082236147661867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>273.13557478263442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200.54402270377324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305.78273220348905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>411.71781313971769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500.09649056571004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>600.44392844013066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>833.42846629343842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1040.4447471959229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1352.1706785044521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1111.0977717067567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1212.2566002764195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1304.2498375773657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1649.1820431855499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1500.2114079832372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="123086336"/>
+        <c:axId val="123147776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123086336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123147776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123147776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123086336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -976,68 +1365,68 @@
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="34"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2341,5 +2730,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/RaportZTestow/F_0.75_Cr_0.5_L_5.xlsx
+++ b/doc/RaportZTestow/F_0.75_Cr_0.5_L_5.xlsx
@@ -982,24 +982,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123086336"/>
-        <c:axId val="123147776"/>
+        <c:axId val="92473984"/>
+        <c:axId val="92496256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123086336"/>
+        <c:axId val="92473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123147776"/>
+        <c:crossAx val="92496256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123147776"/>
+        <c:axId val="92496256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1008,7 +1008,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123086336"/>
+        <c:crossAx val="92473984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1016,6 +1016,81 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Porównanie algorytmów</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Our</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Classic</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1031,16 +1106,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1054,6 +1129,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1347,18 +1452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickTop="1">
+    <row r="1" spans="1:16" ht="15.75" thickTop="1">
       <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1496,7 @@
       </c>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="30" t="s">
@@ -1430,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1475,8 +1581,16 @@
       <c r="N3" s="12">
         <v>1.090042759650111E-7</v>
       </c>
+      <c r="O3">
+        <f>IF(ABS(C3-B3)&lt;ABS(D3-B3),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>IF(ABS(C3-B3)&gt;ABS(D3-B3),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -1521,8 +1635,16 @@
       <c r="N4" s="22">
         <v>19080.857488662416</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O30" si="2">IF(ABS(C4-B4)&lt;ABS(D4-B4),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P30" si="3">IF(ABS(C4-B4)&gt;ABS(D4-B4),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1567,8 +1689,16 @@
       <c r="N5" s="1">
         <v>134.91312919637735</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
@@ -1613,8 +1743,16 @@
       <c r="N6" s="22">
         <v>416.56026072335527</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1659,8 +1797,16 @@
       <c r="N7" s="1">
         <v>3.6350800926357913E-6</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1705,8 +1851,16 @@
       <c r="N8" s="22">
         <v>0.11568706279070223</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1751,8 +1905,16 @@
       <c r="N9" s="1">
         <v>0.40289046438244336</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1797,8 +1959,16 @@
       <c r="N10" s="22">
         <v>0.59698119968586272</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1843,8 +2013,16 @@
       <c r="N11" s="1">
         <v>0.25797759829494959</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -1889,8 +2067,16 @@
       <c r="N12" s="22">
         <v>0.10116399053245184</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1935,8 +2121,16 @@
       <c r="N13" s="1">
         <v>4.2697241312108459E-3</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -1981,8 +2175,16 @@
       <c r="N14" s="22">
         <v>1.171595303690165</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2027,8 +2229,16 @@
       <c r="N15" s="1">
         <v>2.0975173776736007</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
@@ -2073,8 +2283,16 @@
       <c r="N16" s="22">
         <v>27.046018604146877</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2119,8 +2337,16 @@
       <c r="N17" s="1">
         <v>123.65286864888236</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:16">
       <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
@@ -2165,8 +2391,16 @@
       <c r="N18" s="22">
         <v>0.30666747846111159</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -2211,8 +2445,16 @@
       <c r="N19" s="1">
         <v>0.31072007581251482</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:16">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
@@ -2257,8 +2499,16 @@
       <c r="N20" s="22">
         <v>1.0346938126482956</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:16">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2553,16 @@
       <c r="N21" s="1">
         <v>8.1323422536924414E-2</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2607,16 @@
       <c r="N22" s="22">
         <v>0.22649564381821682</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2661,16 @@
       <c r="N23" s="1">
         <v>27.594420001047496</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
@@ -2441,8 +2715,16 @@
       <c r="N24" s="22">
         <v>59.502890957077746</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -2487,8 +2769,16 @@
       <c r="N25" s="1">
         <v>91.151932652041083</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26" s="17" t="s">
         <v>28</v>
       </c>
@@ -2533,8 +2823,16 @@
       <c r="N26" s="22">
         <v>2.8348718790947376</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2579,8 +2877,16 @@
       <c r="N27" s="1">
         <v>4.3748876060667214</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
@@ -2625,8 +2931,16 @@
       <c r="N28" s="22">
         <v>2.1723173500328623</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -2671,8 +2985,16 @@
       <c r="N29" s="1">
         <v>5.3526873957171022</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1">
       <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +3039,25 @@
       <c r="N30" s="29">
         <v>84.237672925993351</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickTop="1"/>
+    <row r="31" spans="1:16" ht="15.75" thickTop="1">
+      <c r="O31">
+        <f>SUM(O3:O30)</f>
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <f>SUM(P3:P30)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M1:N1"/>
